--- a/framework/analysis/all-electric/Results_Reformatted_VRF_MR.xlsx
+++ b/framework/analysis/all-electric/Results_Reformatted_VRF_MR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Annual Results per square foot</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">kTDV by End-Use per square foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -2889,52 +2895,52 @@
         <v>28</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>2.77101132883688</v>
+        <v>15.551</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1.58791826914894</v>
+        <v>10.4665</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1.44947618741135</v>
+        <v>7.10305</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>1.14258501292908</v>
+        <v>6.22437</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>1.30821208526241</v>
+        <v>6.98607</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.561903261668794</v>
+        <v>2.38039</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>0.473554169383688</v>
+        <v>1.80393</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.509638450980142</v>
+        <v>2.32708</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>0.661980046819149</v>
+        <v>3.23453</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>0.799241559716312</v>
+        <v>4.01522</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>1.51378705457447</v>
+        <v>10.3779</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>1.63011385575177</v>
+        <v>10.4496</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>1.45980705107801</v>
+        <v>8.69034</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>1.25682011556028</v>
+        <v>8.63752</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.288840879604965</v>
+        <v>1.36497</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>2.83844201756028</v>
+        <v>33.3715</v>
       </c>
       <c r="V49" s="1"/>
     </row>
@@ -2952,52 +2958,52 @@
         <v>29</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>0</v>
+        <v>2.87211</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>0</v>
+        <v>29.4884</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>0</v>
+        <v>19.6436</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>0</v>
+        <v>35.7494</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>0</v>
+        <v>16.8368</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>0</v>
+        <v>34.4791</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>0</v>
+        <v>31.1515</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>0</v>
+        <v>42.6549</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>0</v>
+        <v>42.8699</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>0</v>
+        <v>44.2836</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>0</v>
+        <v>48.1017</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>0</v>
+        <v>40.1957</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>53.719</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>45.9106</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0</v>
+        <v>77.9581</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0</v>
+        <v>15.5718</v>
       </c>
       <c r="V50" s="1"/>
     </row>
@@ -3015,52 +3021,52 @@
         <v>30</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>0</v>
+        <v>10.9292</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>0</v>
+        <v>12.6536</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>0</v>
+        <v>11.999</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>0</v>
+        <v>13.1562</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>0</v>
+        <v>11.8851</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>0</v>
+        <v>13.0858</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>0</v>
+        <v>12.921</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>0</v>
+        <v>13.9328</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>0</v>
+        <v>14.0166</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>0</v>
+        <v>14.1031</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>0</v>
+        <v>14.0071</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>0</v>
+        <v>13.389</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>14.5262</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>14.8167</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0</v>
+        <v>16.0446</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0</v>
+        <v>12.9549</v>
       </c>
       <c r="V51" s="1"/>
     </row>
@@ -3141,52 +3147,52 @@
         <v>32</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0</v>
+        <v>0.0785054</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0</v>
+        <v>0.0607204</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>0</v>
+        <v>0.071191</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0</v>
+        <v>0.0555506</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>0</v>
+        <v>0.0729759</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>0</v>
+        <v>0.055526</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>0</v>
+        <v>0.0587538</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>0</v>
+        <v>0.0474846</v>
       </c>
       <c r="N53" s="1" t="n">
-        <v>0</v>
+        <v>0.0453126</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>0</v>
+        <v>0.044323</v>
       </c>
       <c r="P53" s="1" t="n">
-        <v>0</v>
+        <v>0.0482193</v>
       </c>
       <c r="Q53" s="1" t="n">
-        <v>0</v>
+        <v>0.0570745</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>0.0466843</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>0.0420985</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0</v>
+        <v>0.030547</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0</v>
+        <v>0.0719019</v>
       </c>
       <c r="V53" s="1"/>
     </row>
@@ -3204,52 +3210,52 @@
         <v>33</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>7.51089950134752</v>
+        <v>25.8858</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>6.83037424250355</v>
+        <v>23.783</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>6.8139242742766</v>
+        <v>23.6517</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>6.40581616167376</v>
+        <v>22.4728</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>6.81593088678014</v>
+        <v>23.6792</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>6.1580810582766</v>
+        <v>21.6685</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>6.13646920346808</v>
+        <v>21.5886</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>5.9438556746383</v>
+        <v>21.0279</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>6.00560687002128</v>
+        <v>21.2369</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>5.33171832249645</v>
+        <v>19.2054</v>
       </c>
       <c r="P54" s="1" t="n">
-        <v>5.46671441951064</v>
+        <v>19.6817</v>
       </c>
       <c r="Q54" s="1" t="n">
-        <v>5.70175043105674</v>
+        <v>20.363</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>5.29661323943972</v>
+        <v>19.1552</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>5.50688921260284</v>
+        <v>19.9802</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>4.3365945118156</v>
+        <v>15.94</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>6.53668558562411</v>
+        <v>23.3584</v>
       </c>
       <c r="V54" s="1"/>
     </row>
@@ -3267,52 +3273,52 @@
         <v>34</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0</v>
+        <v>18.9221</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0</v>
+        <v>19.575</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0</v>
+        <v>19.2893</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0</v>
+        <v>19.5752</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0</v>
+        <v>18.9723</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0</v>
+        <v>19.5331</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0</v>
+        <v>19.187</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0</v>
+        <v>19.9668</v>
       </c>
       <c r="N55" s="1" t="n">
-        <v>0</v>
+        <v>20.0385</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>0</v>
+        <v>19.6646</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>0</v>
+        <v>19.3967</v>
       </c>
       <c r="Q55" s="1" t="n">
-        <v>0</v>
+        <v>19.3544</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>19.5209</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>19.8394</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0</v>
+        <v>19.5118</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0</v>
+        <v>18.486</v>
       </c>
       <c r="V55" s="1"/>
     </row>
@@ -3330,52 +3336,52 @@
         <v>35</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>10.2819391921986</v>
+        <v>74.2388</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>8.41827124014184</v>
+        <v>96.0272</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>8.26341464269504</v>
+        <v>81.7579</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>7.54840826510638</v>
+        <v>97.2335</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>8.12415715304964</v>
+        <v>78.4324</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>6.71998219279433</v>
+        <v>91.2024</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>6.61002266380142</v>
+        <v>86.7108</v>
       </c>
       <c r="M56" s="1" t="n">
-        <v>6.45349270751773</v>
+        <v>99.957</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>6.66758337158865</v>
+        <v>101.442</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>6.13095279170922</v>
+        <v>101.316</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>6.98050856458865</v>
+        <v>111.613</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>7.33186428680851</v>
+        <v>103.809</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>6.75642029051773</v>
+        <v>115.658</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>6.76370932816312</v>
+        <v>109.227</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>4.6254332642695</v>
+        <v>130.85</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>9.37513469368795</v>
+        <v>103.815</v>
       </c>
       <c r="V56" s="1"/>
     </row>
@@ -3393,52 +3399,52 @@
         <v>36</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>57.1167</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.5452</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>56.3362</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.6091</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>56.8481</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.8361</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>56.2743</v>
       </c>
       <c r="M57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.4267</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.3646</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.5738</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.7311</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.7605</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.5512</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.4227</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>55.4332</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.416016860258156</v>
+        <v>57.1015</v>
       </c>
       <c r="V57" s="1"/>
     </row>
@@ -3519,52 +3525,52 @@
         <v>38</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>0</v>
+        <v>40.6046</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>0</v>
+        <v>38.181</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>0</v>
+        <v>39.3474</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>0</v>
+        <v>38.1954</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>0</v>
+        <v>40.2183</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>0</v>
+        <v>38.5314</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>0</v>
+        <v>39.3455</v>
       </c>
       <c r="M59" s="1" t="n">
-        <v>0</v>
+        <v>37.5962</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>0</v>
+        <v>37.4912</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>0</v>
+        <v>38.1082</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>0</v>
+        <v>38.5354</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>0</v>
+        <v>38.6198</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>38.1996</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>37.7262</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>0</v>
+        <v>38.0763</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0</v>
+        <v>40.9953</v>
       </c>
       <c r="V59" s="1"/>
     </row>
@@ -3582,52 +3588,52 @@
         <v>39</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>0</v>
+        <v>8.51343</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>0</v>
+        <v>8.44143</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>0</v>
+        <v>8.48694</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>0</v>
+        <v>8.50068</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0</v>
+        <v>8.53459</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>0</v>
+        <v>8.48548</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>0</v>
+        <v>8.4861</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>0</v>
+        <v>8.5205</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>0</v>
+        <v>8.49678</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>0</v>
+        <v>8.48018</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>0</v>
+        <v>8.47645</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>0</v>
+        <v>8.47903</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>8.45706</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>8.4772</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>0</v>
+        <v>8.48148</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0</v>
+        <v>8.65104</v>
       </c>
       <c r="V60" s="1"/>
     </row>
@@ -3642,57 +3648,305 @@
         <v>141000</v>
       </c>
       <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E63" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="1" t="n">
-        <v>10.6979390352482</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>8.83434198822695</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>8.67941448574468</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>7.96440810815603</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>8.54015699609929</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>7.13602457886525</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>7.0260437783617</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>6.86951382207801</v>
-      </c>
-      <c r="N61" s="1" t="n">
-        <v>7.08360448614894</v>
-      </c>
-      <c r="O61" s="1" t="n">
-        <v>6.5469739062695</v>
-      </c>
-      <c r="P61" s="1" t="n">
-        <v>7.39652967914894</v>
-      </c>
-      <c r="Q61" s="1" t="n">
-        <v>7.74786412985816</v>
-      </c>
-      <c r="R61" s="1" t="n">
-        <v>7.1724697670922</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>7.17970208070922</v>
-      </c>
-      <c r="T61" s="1" t="n">
-        <v>5.04145437882979</v>
-      </c>
-      <c r="U61" s="1" t="n">
-        <v>9.79113453673759</v>
-      </c>
-      <c r="V61" s="1"/>
+      <c r="F63" t="n">
+        <v>180.473</v>
+      </c>
+      <c r="G63" t="n">
+        <v>198.195</v>
+      </c>
+      <c r="H63" t="n">
+        <v>185.928</v>
+      </c>
+      <c r="I63" t="n">
+        <v>199.539</v>
+      </c>
+      <c r="J63" t="n">
+        <v>184.033</v>
+      </c>
+      <c r="K63" t="n">
+        <v>194.055</v>
+      </c>
+      <c r="L63" t="n">
+        <v>190.817</v>
+      </c>
+      <c r="M63" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>202.794</v>
+      </c>
+      <c r="O63" t="n">
+        <v>203.478</v>
+      </c>
+      <c r="P63" t="n">
+        <v>214.356</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>206.668</v>
+      </c>
+      <c r="R63" t="n">
+        <v>217.866</v>
+      </c>
+      <c r="S63" t="n">
+        <v>210.853</v>
+      </c>
+      <c r="T63" t="n">
+        <v>232.841</v>
+      </c>
+      <c r="U63" t="n">
+        <v>210.562</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="n">
+        <v>148.177</v>
+      </c>
+      <c r="G64" t="n">
+        <v>171.33</v>
+      </c>
+      <c r="H64" t="n">
+        <v>159.638</v>
+      </c>
+      <c r="I64" t="n">
+        <v>175.33</v>
+      </c>
+      <c r="J64" t="n">
+        <v>158.248</v>
+      </c>
+      <c r="K64" t="n">
+        <v>172.406</v>
+      </c>
+      <c r="L64" t="n">
+        <v>169.466</v>
+      </c>
+      <c r="M64" t="n">
+        <v>180.628</v>
+      </c>
+      <c r="N64" t="n">
+        <v>181.214</v>
+      </c>
+      <c r="O64" t="n">
+        <v>183.42</v>
+      </c>
+      <c r="P64" t="n">
+        <v>191.582</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>182.883</v>
+      </c>
+      <c r="R64" t="n">
+        <v>195.753</v>
+      </c>
+      <c r="S64" t="n">
+        <v>188.643</v>
+      </c>
+      <c r="T64" t="n">
+        <v>217.403</v>
+      </c>
+      <c r="U64" t="n">
+        <v>180.327</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>141000</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="n">
+        <v>32.2969</v>
+      </c>
+      <c r="G65" t="n">
+        <v>26.8645</v>
+      </c>
+      <c r="H65" t="n">
+        <v>26.2909</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24.2084</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25.7855</v>
+      </c>
+      <c r="K65" t="n">
+        <v>21.6494</v>
+      </c>
+      <c r="L65" t="n">
+        <v>21.3508</v>
+      </c>
+      <c r="M65" t="n">
+        <v>20.8727</v>
+      </c>
+      <c r="N65" t="n">
+        <v>21.5802</v>
+      </c>
+      <c r="O65" t="n">
+        <v>20.0582</v>
+      </c>
+      <c r="P65" t="n">
+        <v>22.7747</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>23.7856</v>
+      </c>
+      <c r="R65" t="n">
+        <v>22.1133</v>
+      </c>
+      <c r="S65" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="T65" t="n">
+        <v>15.4376</v>
+      </c>
+      <c r="U65" t="n">
+        <v>30.2354</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
